--- a/console/Networking/iaas网络与容器中文提取/vpcExcel/components/vpc_subnetTab.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcExcel/components/vpc_subnetTab.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2018年\12月\12月4日\VPC和子网国际化-by-JD\最终版\vpcExcel\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -125,18 +125,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>No Subnet Data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Name</t>
     </r>
   </si>
@@ -163,13 +151,17 @@
       </rPr>
       <t>Available IP</t>
     </r>
+  </si>
+  <si>
+    <t>No Subnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +171,29 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -205,8 +220,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -546,26 +564,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -573,10 +594,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -584,10 +605,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -595,12 +616,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B4" numberStoredAsText="1"/>
   </ignoredErrors>
